--- a/fillo_examples/src/test/resources/TestData.xlsx
+++ b/fillo_examples/src/test/resources/TestData.xlsx
@@ -217,7 +217,7 @@
   <dimension ref="A1:A1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -262,7 +262,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B1:D1 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -288,7 +288,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B1:D1 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
